--- a/dobor_elementow.xlsx
+++ b/dobor_elementow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dawid\Desktop\Magisterka\plc_io_module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCEBC24-6CDC-4CCC-9E38-E71DA428FD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2CFC46-2C6C-47F4-AB79-B25D47C35C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{406B53CB-2A00-4076-A6CD-2AC68D93C14B}"/>
+    <workbookView xWindow="30" yWindow="4515" windowWidth="16440" windowHeight="9750" activeTab="2" xr2:uid="{406B53CB-2A00-4076-A6CD-2AC68D93C14B}"/>
   </bookViews>
   <sheets>
     <sheet name="signal_diodes" sheetId="1" r:id="rId1"/>
@@ -760,7 +760,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -790,6 +790,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -811,24 +812,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperłącze" xfId="2" builtinId="8"/>
     <cellStyle name="Neutralny" xfId="1" builtinId="28"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -836,46 +835,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -941,11 +900,41 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2021,15 +2010,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26"/>
-      <c r="O2" s="24" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="27"/>
+      <c r="O2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="26"/>
+      <c r="P2" s="27"/>
     </row>
     <row r="3" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J3" s="6" t="s">
@@ -2066,11 +2055,11 @@
       </c>
     </row>
     <row r="6" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27"/>
     </row>
     <row r="7" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J7" s="11"/>
@@ -2080,10 +2069,10 @@
       <c r="L7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="23"/>
+      <c r="P7" s="24"/>
     </row>
     <row r="8" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J8" s="13" t="s">
@@ -2140,14 +2129,14 @@
       </c>
     </row>
     <row r="12" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="23"/>
-      <c r="O12" s="21" t="s">
+      <c r="K12" s="24"/>
+      <c r="O12" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="23"/>
+      <c r="P12" s="24"/>
     </row>
     <row r="13" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J13" s="12" t="s">
@@ -2195,11 +2184,11 @@
       </c>
     </row>
     <row r="18" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J18" s="21" t="s">
+      <c r="J18" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
     </row>
     <row r="19" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J19" s="13" t="s">
@@ -2230,8 +2219,8 @@
       </c>
     </row>
     <row r="26" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2246,34 +2235,34 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="P3">
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="lessThan">
       <formula>$L$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="greaterThan">
       <formula>$L$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="lessThan">
       <formula>$L$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="greaterThan">
       <formula>$L$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
       <formula>$L$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="greaterThan">
       <formula>$L$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:P15">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="lessThan">
       <formula>$K$19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="greaterThan">
       <formula>$K$19</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2388,11 +2377,11 @@
       </c>
     </row>
     <row r="15" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
       <c r="M15" t="s">
         <v>63</v>
       </c>
@@ -2501,18 +2490,18 @@
     <mergeCell ref="H15:J15"/>
   </mergeCells>
   <conditionalFormatting sqref="N7">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
       <formula>$I$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThan">
       <formula>$I$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19:N20">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
       <formula>$I$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
       <formula>$I$16</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2525,8 +2514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08ABE11-FB12-48E5-A17B-097160C17987}">
   <dimension ref="D2:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2632,7 +2621,7 @@
       <c r="J12" t="s">
         <v>89</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="21">
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="L12">
@@ -2672,7 +2661,7 @@
       <c r="J15" t="s">
         <v>92</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="21">
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="L15">
@@ -2994,63 +2983,58 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="O8:O9 O11:O12">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O11">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+      <formula>$K$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+      <formula>$K$28</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O23">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>$R$23</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O38:O39">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
+      <formula>$R$38</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="V17">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="greaterThan">
       <formula>$L$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V18">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="greaterThan">
       <formula>$L$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V19">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
       <formula>$L$13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V20">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThan">
       <formula>$L$14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V21">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
       <formula>$L$15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>$L$16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O38">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
-      <formula>$R$38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O39">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
-      <formula>$R$38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O11">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
-      <formula>$K$28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
-      <formula>$K$28</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3336,35 +3320,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="32" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="31" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="32" t="s">
+      <c r="H4" s="30"/>
+      <c r="I4" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="32"/>
+      <c r="J4" s="31"/>
       <c r="K4" s="11" t="s">
         <v>36</v>
       </c>
@@ -3402,25 +3386,25 @@
       <c r="C6" s="13">
         <v>201</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6">
         <v>603</v>
       </c>
       <c r="E6" s="13">
         <v>2.4E-2</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6">
         <v>0.6</v>
       </c>
       <c r="G6" s="13">
         <v>1.2E-2</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6">
         <v>0.3</v>
       </c>
       <c r="I6" s="13">
         <v>0.01</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6">
         <v>0.25</v>
       </c>
       <c r="K6" s="13" t="s">
@@ -3431,25 +3415,25 @@
       <c r="C7" s="13">
         <v>402</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7">
         <v>1005</v>
       </c>
       <c r="E7" s="13">
         <v>0.04</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" s="13">
         <v>0.02</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7">
         <v>0.5</v>
       </c>
       <c r="I7" s="13">
         <v>1.4E-2</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7">
         <v>0.35</v>
       </c>
       <c r="K7" s="13" t="s">
@@ -3460,25 +3444,25 @@
       <c r="C8" s="13">
         <v>603</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8">
         <v>1608</v>
       </c>
       <c r="E8" s="13">
         <v>0.06</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8">
         <v>1.55</v>
       </c>
       <c r="G8" s="13">
         <v>0.03</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8">
         <v>0.85</v>
       </c>
       <c r="I8" s="13">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8">
         <v>0.45</v>
       </c>
       <c r="K8" s="13" t="s">
@@ -3489,25 +3473,25 @@
       <c r="C9" s="13">
         <v>805</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9" s="13">
         <v>0.08</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9">
         <v>2</v>
       </c>
       <c r="G9" s="13">
         <v>0.05</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9">
         <v>1.2</v>
       </c>
       <c r="I9" s="13">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9">
         <v>0.45</v>
       </c>
       <c r="K9" s="13" t="s">
@@ -3518,25 +3502,25 @@
       <c r="C10" s="13">
         <v>1206</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10">
         <v>3216</v>
       </c>
       <c r="E10" s="13">
         <v>0.12</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10">
         <v>3.2</v>
       </c>
       <c r="G10" s="13">
         <v>0.06</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10">
         <v>1.6</v>
       </c>
       <c r="I10" s="13">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10">
         <v>0.55000000000000004</v>
       </c>
       <c r="K10" s="13" t="s">
@@ -3547,25 +3531,25 @@
       <c r="C11" s="13">
         <v>1210</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11">
         <v>3225</v>
       </c>
       <c r="E11" s="13">
         <v>0.12</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11">
         <v>3.2</v>
       </c>
       <c r="G11" s="13">
         <v>0.1</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11">
         <v>2.5</v>
       </c>
       <c r="I11" s="13">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11">
         <v>0.55000000000000004</v>
       </c>
       <c r="K11" s="13" t="s">
@@ -3576,25 +3560,25 @@
       <c r="C12" s="13">
         <v>1812</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12">
         <v>3246</v>
       </c>
       <c r="E12" s="13">
         <v>0.12</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12">
         <v>3.2</v>
       </c>
       <c r="G12" s="13">
         <v>0.18</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12">
         <v>4.5999999999999996</v>
       </c>
       <c r="I12" s="13">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12">
         <v>0.55000000000000004</v>
       </c>
       <c r="K12" s="13">
@@ -3605,25 +3589,25 @@
       <c r="C13" s="13">
         <v>2010</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13">
         <v>5025</v>
       </c>
       <c r="E13" s="13">
         <v>0.2</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13">
         <v>5</v>
       </c>
       <c r="G13" s="13">
         <v>0.1</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13">
         <v>2.5</v>
       </c>
       <c r="I13" s="13">
         <v>2.4E-2</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13">
         <v>0.6</v>
       </c>
       <c r="K13" s="13" t="s">
@@ -3660,22 +3644,22 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="32" t="s">
+      <c r="D16" s="30"/>
+      <c r="E16" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="31" t="s">
+      <c r="F16" s="31"/>
+      <c r="G16" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="33"/>
-      <c r="I16" s="32" t="s">
+      <c r="H16" s="30"/>
+      <c r="I16" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="33"/>
+      <c r="J16" s="30"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" s="11" t="s">
@@ -3710,19 +3694,19 @@
       <c r="D18" s="13">
         <v>603</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18">
         <v>1.2E-2</v>
       </c>
       <c r="F18" s="13">
         <v>0.3</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18">
         <v>1.2E-2</v>
       </c>
       <c r="H18" s="13">
         <v>0.3</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18">
         <v>1.2E-2</v>
       </c>
       <c r="J18" s="13">
@@ -3736,19 +3720,19 @@
       <c r="D19" s="13">
         <v>1005</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19">
         <v>2.4E-2</v>
       </c>
       <c r="F19" s="13">
         <v>0.6</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19">
         <v>0.02</v>
       </c>
       <c r="H19" s="13">
         <v>0.5</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19">
         <v>0.02</v>
       </c>
       <c r="J19" s="13">
@@ -3762,19 +3746,19 @@
       <c r="D20" s="13">
         <v>1608</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="F20" s="13">
         <v>0.9</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20">
         <v>2.4E-2</v>
       </c>
       <c r="H20" s="13">
         <v>0.6</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="J20" s="13">
@@ -3788,19 +3772,19 @@
       <c r="D21" s="13">
         <v>2012</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="F21" s="13">
         <v>1.3</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="H21" s="13">
         <v>0.7</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21">
         <v>4.7E-2</v>
       </c>
       <c r="J21" s="13">
@@ -3814,19 +3798,19 @@
       <c r="D22" s="13">
         <v>3216</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22">
         <v>6.3E-2</v>
       </c>
       <c r="F22" s="13">
         <v>1.6</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="H22" s="13">
         <v>0.9</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22">
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="J22" s="13">
@@ -3840,19 +3824,19 @@
       <c r="D23" s="13">
         <v>3246</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23">
         <v>0.19</v>
       </c>
       <c r="F23" s="13">
         <v>4.8</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="H23" s="13">
         <v>0.9</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23">
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="J23" s="13">
@@ -3866,19 +3850,19 @@
       <c r="D24" s="13">
         <v>5025</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24">
         <v>0.11</v>
       </c>
       <c r="F24" s="13">
         <v>2.8</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="H24" s="13">
         <v>0.9</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24">
         <v>0.15</v>
       </c>
       <c r="J24" s="13">
@@ -3947,10 +3931,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="33"/>
     </row>
     <row r="4" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
